--- a/pspform/Defect Recording Log.xlsx
+++ b/pspform/Defect Recording Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johann\Desktop\Tarea 4 Entregar\formas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johann\Documents\Conceptos Avanzadas de Ing\ECOS - Tarea 4\pspform\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,12 +516,12 @@
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
